--- a/AMPRayTracer/BenchMark.xlsx
+++ b/AMPRayTracer/BenchMark.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geom = 7, effects = null" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>GPU(ms)</t>
   </si>
   <si>
-    <t>GPU-TILE(ms)</t>
-  </si>
-  <si>
     <t>LG(COUNT)</t>
   </si>
   <si>
@@ -67,11 +64,14 @@
   <si>
     <t>1920 X 1080</t>
   </si>
+  <si>
+    <t>GPU-8x8 TILE(ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,6 +121,2827 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU Runtime Trend (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4F7C-4BED-AAAC-17CACA1D268C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4F7C-4BED-AAAC-17CACA1D268C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4F7C-4BED-AAAC-17CACA1D268C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4F7C-4BED-AAAC-17CACA1D268C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1089400863"/>
+        <c:axId val="1088377359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1089400863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log(2)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of the number of pixels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088377359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088377359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089400863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU-Per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pixel Runtime Trend (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10458092738407698"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.44831765820939057"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EF6-4EC1-94B1-CBEBEC059FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1150590015"/>
+        <c:axId val="1088800191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1150590015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log(2)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of the number of pixels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088800191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088800191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150590015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 8X8 Tile</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Runtime Trend (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU-8x8 TILE(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E930-4515-BBA9-51944D07B7AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1089400863"/>
+        <c:axId val="1088377359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1089400863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log(2)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of the number of pixels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088377359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088377359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089400863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E37E-4E76-871E-F6E0AFCEF484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E37E-4E76-871E-F6E0AFCEF484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'geom = 7, effects = null'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU-8x8 TILE(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'geom = 7, effects = null'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E37E-4E76-871E-F6E0AFCEF484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1089400863"/>
+        <c:axId val="1088377359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1089400863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log(2)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of the number of pixels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088377359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088377359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089400863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7506A44-E36C-47D3-96B2-13A427EDBFA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EED525A-67FD-477D-A574-5722B92A5A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC51C10-D8B3-4928-BD11-5CD10FCC8307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC7B0B4-BE1A-4950-9FC8-683517889C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,11 +3240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +3253,7 @@
     <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -446,13 +3267,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -461,18 +3282,18 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>4096</v>
       </c>
       <c r="C3">
-        <f>LOG(B3,2)</f>
+        <f t="shared" ref="C3:C9" si="0">LOG(B3,2)</f>
         <v>12</v>
       </c>
       <c r="D3">
@@ -487,13 +3308,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>36684</v>
       </c>
       <c r="C4">
-        <f>LOG(B4,2)</f>
+        <f t="shared" si="0"/>
         <v>15.162863337608126</v>
       </c>
       <c r="D4">
@@ -508,13 +3329,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>76800</v>
       </c>
       <c r="C5">
-        <f>LOG(B5,2)</f>
+        <f t="shared" si="0"/>
         <v>16.228818690495881</v>
       </c>
       <c r="D5">
@@ -529,13 +3350,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>204800</v>
       </c>
       <c r="C6">
-        <f>LOG(B6,2)</f>
+        <f t="shared" si="0"/>
         <v>17.643856189774723</v>
       </c>
       <c r="D6">
@@ -550,13 +3371,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>307200</v>
       </c>
       <c r="C7">
-        <f>LOG(B7,2)</f>
+        <f t="shared" si="0"/>
         <v>18.228818690495881</v>
       </c>
       <c r="D7">
@@ -571,13 +3392,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>921600</v>
       </c>
       <c r="C8">
-        <f>LOG(B8,2)</f>
+        <f t="shared" si="0"/>
         <v>19.813781191217039</v>
       </c>
       <c r="D8">
@@ -592,13 +3413,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2073600</v>
       </c>
       <c r="C9">
-        <f>LOG(B9,2)</f>
+        <f t="shared" si="0"/>
         <v>20.983706192659351</v>
       </c>
       <c r="D9">
@@ -616,5 +3437,6 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/AMPRayTracer/BenchMark.xlsx
+++ b/AMPRayTracer/BenchMark.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geom = 7, effects = null" sheetId="1" r:id="rId1"/>
+    <sheet name="shading and lighting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>NO SUPERSAMPLING</t>
   </si>
@@ -66,6 +67,45 @@
   </si>
   <si>
     <t>GPU-8x8 TILE(ms)</t>
+  </si>
+  <si>
+    <t>AVE CPU (ms)</t>
+  </si>
+  <si>
+    <t>CPU1</t>
+  </si>
+  <si>
+    <t>CPU2</t>
+  </si>
+  <si>
+    <t>CPU3</t>
+  </si>
+  <si>
+    <t>3840 x 2160</t>
+  </si>
+  <si>
+    <t>GPU-TILE1</t>
+  </si>
+  <si>
+    <t>GPU-TILE2</t>
+  </si>
+  <si>
+    <t>GPU-TILE3</t>
+  </si>
+  <si>
+    <t>GPU-TILE (8X8)(ms)</t>
+  </si>
+  <si>
+    <t>GPU 1</t>
+  </si>
+  <si>
+    <t>GPU 2</t>
+  </si>
+  <si>
+    <t>GPU 3</t>
+  </si>
+  <si>
+    <t>AVE-GPU (ms)</t>
   </si>
 </sst>
 </file>
@@ -767,6 +807,446 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RUNTIME COMPARISON(ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.15406022845275183"/>
+          <c:w val="0.86458005249343817"/>
+          <c:h val="0.38974039460020771"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F81-465C-B40B-FEECA2D57293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU TILED [8x8] RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.33333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F81-465C-B40B-FEECA2D57293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1396222064"/>
+        <c:axId val="1304636112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1396222064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304636112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1304636112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396222064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2160979877515321E-2"/>
+          <c:y val="0.76706028568858797"/>
+          <c:w val="0.85061679790026246"/>
+          <c:h val="0.23053155738710232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2235,7 +2715,2223 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>224.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1342.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3143.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12747.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76094.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311199.66666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-29AC-4A94-90BF-B8C729EFC768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVE GPU (TILED[8x8]) RUNTIME(ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.33333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F71D-4C1E-8CB5-3A31FB9D2357}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVE GPU RUNTIME(ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVE GPU RUNTIME(ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C65-4A56-9720-A1AB3CDA2604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RUNTIME COMPARISON (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVE CPU RUNTIME(MS)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>224.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1342.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3143.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12747.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76094.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311199.66666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DE00-4809-8242-456339CFCDF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AVE GPU RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DE00-4809-8242-456339CFCDF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AVE GPU (8x8) RUNTIME (MS)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.33333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DE00-4809-8242-456339CFCDF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RUNTIME COMPARISON(ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.15406022845275183"/>
+          <c:w val="0.86458005249343817"/>
+          <c:h val="0.38974039460020771"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F81-465C-B40B-FEECA2D57293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU TILED [8x8] RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'shading and lighting'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.33333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F81-465C-B40B-FEECA2D57293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1396222064"/>
+        <c:axId val="1304636112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1396222064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304636112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1304636112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396222064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2160979877515321E-2"/>
+          <c:y val="0.76706028568858797"/>
+          <c:w val="0.85061679790026246"/>
+          <c:h val="0.23053155738710232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2438,6 +5134,3076 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2944,6 +8710,233 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D5B559-755A-4FFF-914B-69C907FE5B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BB917D-B905-4327-8E91-63D30300A7E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB88D38-76BE-453A-ADDB-F936999EC2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4FE3A8-6F16-4E45-93F8-2C3157DAEA16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488E3E79-4418-4F41-828F-2FC78411C31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE09814-F49F-4D87-825A-4A5FF71676EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3243,8 +9236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,4 +9432,497 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526573F3-5731-4E12-98F2-EF06B3E4A40F}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4096</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D10" si="0">LOG(B3,2)</f>
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>238</v>
+      </c>
+      <c r="E3">
+        <v>233</v>
+      </c>
+      <c r="F3">
+        <v>203</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(D3:F3)</f>
+        <v>224.66666666666666</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(H3:J3)</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(L3:N3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>36684</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>15.162863337608126</v>
+      </c>
+      <c r="D4">
+        <v>1362</v>
+      </c>
+      <c r="E4">
+        <v>1326</v>
+      </c>
+      <c r="F4">
+        <v>1340</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="1">AVERAGE(D4:F4)</f>
+        <v>1342.6666666666667</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="2">AVERAGE(H4:J4)</f>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="3">AVERAGE(L4:N4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>76800</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>16.228818690495881</v>
+      </c>
+      <c r="D5">
+        <v>3178</v>
+      </c>
+      <c r="E5">
+        <v>3136</v>
+      </c>
+      <c r="F5">
+        <v>3116</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3143.3333333333335</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>204800</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>17.643856189774723</v>
+      </c>
+      <c r="D6">
+        <v>8308</v>
+      </c>
+      <c r="E6">
+        <v>8335</v>
+      </c>
+      <c r="F6">
+        <v>8320</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8321</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>307200</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>18.228818690495881</v>
+      </c>
+      <c r="D7">
+        <v>12809</v>
+      </c>
+      <c r="E7">
+        <v>12643</v>
+      </c>
+      <c r="F7">
+        <v>12791</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>12747.666666666666</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>921600</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>19.813781191217039</v>
+      </c>
+      <c r="D8">
+        <v>34322</v>
+      </c>
+      <c r="E8">
+        <v>33764</v>
+      </c>
+      <c r="F8">
+        <v>34031</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>34039</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2073600</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>20.983706192659351</v>
+      </c>
+      <c r="D9">
+        <v>76012</v>
+      </c>
+      <c r="E9">
+        <v>76317</v>
+      </c>
+      <c r="F9">
+        <v>75954</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>76094.333333333328</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>32.666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>8294400</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>22.983706192659351</v>
+      </c>
+      <c r="D10">
+        <v>314539</v>
+      </c>
+      <c r="E10">
+        <v>309723</v>
+      </c>
+      <c r="F10">
+        <v>309337</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>311199.66666666669</v>
+      </c>
+      <c r="H10">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>107</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>118.33333333333333</v>
+      </c>
+      <c r="L10">
+        <v>151</v>
+      </c>
+      <c r="M10">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>121</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/AMPRayTracer/BenchMark.xlsx
+++ b/AMPRayTracer/BenchMark.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geom = 7, effects = null" sheetId="1" r:id="rId1"/>
     <sheet name="shading and lighting" sheetId="2" r:id="rId2"/>
+    <sheet name="reflection-refraction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>NO SUPERSAMPLING</t>
   </si>
@@ -112,7 +113,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,9 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,6 +1068,2086 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F81-465C-B40B-FEECA2D57293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1396222064"/>
+        <c:axId val="1304636112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1396222064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304636112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1304636112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396222064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2160979877515321E-2"/>
+          <c:y val="0.76706028568858797"/>
+          <c:w val="0.85061679790026246"/>
+          <c:h val="0.23053155738710232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CPU RUNTIME (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'reflection-refraction'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVE CPU (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>446.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2628.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6712.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16941.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>586809.33333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9194-40E3-BD89-0143AEF25F0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVE GPU (TILED[8x8]) RUNTIME(ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B696-41C7-AC98-73B37C7F3C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVE GPU RUNTIME(ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVE GPU RUNTIME(ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250.66666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B67D-4F7C-B1F5-D5EC03EEEEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RUNTIME COMPARISON (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVE CPU RUNTIME(MS)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>446.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2628.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6712.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16941.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>586809.33333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9696-4956-86C2-B0A85998CDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AVE GPU RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250.66666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9696-4956-86C2-B0A85998CDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AVE GPU (8x8) RUNTIME (MS)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'shading and lighting'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9696-4956-86C2-B0A85998CDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1391781024"/>
+        <c:axId val="1305402272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1391781024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1305402272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1305402272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391781024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RUNTIME COMPARISON(ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.15406022845275183"/>
+          <c:w val="0.86458005249343817"/>
+          <c:h val="0.38974039460020771"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250.66666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2084-45FC-AC27-E9227FE83BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU TILED [8x8] RUNTIME (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.162863337608126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.643856189774723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.228818690495881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.813781191217039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.983706192659351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.983706192659351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'reflection-refraction'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2084-45FC-AC27-E9227FE83BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2729,6 +4821,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CPU RUNTIME (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4731,6 +6883,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4971,6 +7243,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5487,7 +7839,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6003,7 +8355,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6519,8 +8871,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6628,11 +8980,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6643,11 +8990,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6679,9 +9021,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7035,7 +9374,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7551,8 +9890,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7660,6 +9999,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7670,6 +10014,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7701,6 +10050,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8054,8 +10406,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8163,6 +10515,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8173,6 +10530,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8204,6 +10566,2563 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8937,6 +13856,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FEE625-3889-488E-947A-8AD9FDB5BDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B93A93-75DF-4BB8-8B73-274EC26E2DB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8127B0-CD24-4F14-82D4-F5C1D9A6EB48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FF7611-A512-4BC5-843E-99E3576EA580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3080810C-5EBC-43D6-A009-D7FEAAA1501F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9438,484 +14552,981 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526573F3-5731-4E12-98F2-EF06B3E4A40F}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="1" max="6" width="9.140625" style="2"/>
+    <col min="7" max="10" width="15.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4096</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:D10" si="0">LOG(B3,2)</f>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C10" si="0">LOG(B3,2)</f>
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>238</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>233</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>203</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f>AVERAGE(D3:F3)</f>
         <v>224.66666666666666</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <f>AVERAGE(H3:J3)</f>
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <f>AVERAGE(L3:N3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>36684</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>15.162863337608126</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1362</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1326</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>1340</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G10" si="1">AVERAGE(D4:F4)</f>
         <v>1342.6666666666667</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K10" si="2">AVERAGE(H4:J4)</f>
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f t="shared" ref="O4:O10" si="3">AVERAGE(L4:N4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>76800</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>16.228818690495881</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3178</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>3136</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>3116</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>3143.3333333333335</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>204800</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>17.643856189774723</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>8308</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>8335</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>8320</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>8321</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f t="shared" si="2"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>6</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>307200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>18.228818690495881</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>12809</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>12643</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>12791</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>12747.666666666666</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>7</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>9</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>6</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>921600</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>19.813781191217039</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>34322</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>33764</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>34031</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>34039</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>17</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>12</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>17</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>15</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>15</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <f t="shared" si="3"/>
         <v>15.666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2073600</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>20.983706192659351</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>76012</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>76317</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>75954</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>76094.333333333328</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>34</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>32</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>30</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>38</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>32</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>28</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <f t="shared" si="3"/>
         <v>32.666666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8294400</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>22.983706192659351</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>314539</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>309723</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>309337</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>311199.66666666669</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>139</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>107</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>109</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>118.33333333333333</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>151</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>115</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>121</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <f t="shared" si="3"/>
         <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D4BD0D-E59E-40F5-913B-69AA8E58CD90}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="9.140625" style="2"/>
+    <col min="7" max="10" width="15.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4096</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C10" si="0">LOG(B3,2)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>476</v>
+      </c>
+      <c r="E3" s="2">
+        <v>436</v>
+      </c>
+      <c r="F3" s="2">
+        <v>428</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(D3:F3)</f>
+        <v>446.66666666666669</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <f>AVERAGE(H3:J3)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <f>AVERAGE(L3:N3)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36684</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>15.162863337608126</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2664</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2615</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2607</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G10" si="1">AVERAGE(D4:F4)</f>
+        <v>2628.6666666666665</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K10" si="2">AVERAGE(H4:J4)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O10" si="3">AVERAGE(L4:N4)</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>76800</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>16.228818690495881</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6617</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6785</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6736</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>6712.666666666667</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>204800</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>17.643856189774723</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16245</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18070</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16509</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>16941.333333333332</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>307200</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>18.228818690495881</v>
+      </c>
+      <c r="D7" s="2">
+        <v>26795</v>
+      </c>
+      <c r="E7" s="2">
+        <v>27683</v>
+      </c>
+      <c r="F7" s="2">
+        <v>26963</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>27147</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2">
+        <v>14</v>
+      </c>
+      <c r="N7" s="2">
+        <v>13</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>921600</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>19.813781191217039</v>
+      </c>
+      <c r="D8" s="2">
+        <v>65579</v>
+      </c>
+      <c r="E8" s="2">
+        <v>64968</v>
+      </c>
+      <c r="F8" s="2">
+        <v>65164</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>65237</v>
+      </c>
+      <c r="H8" s="2">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="L8" s="2">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2073600</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>20.983706192659351</v>
+      </c>
+      <c r="D9" s="2">
+        <v>149282</v>
+      </c>
+      <c r="E9" s="2">
+        <v>145065</v>
+      </c>
+      <c r="F9" s="2">
+        <v>145372</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>146573</v>
+      </c>
+      <c r="H9" s="2">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>63.666666666666664</v>
+      </c>
+      <c r="L9" s="2">
+        <v>66</v>
+      </c>
+      <c r="M9" s="2">
+        <v>60</v>
+      </c>
+      <c r="N9" s="2">
+        <v>57</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8294400</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>22.983706192659351</v>
+      </c>
+      <c r="D10" s="2">
+        <v>579921</v>
+      </c>
+      <c r="E10" s="2">
+        <v>593044</v>
+      </c>
+      <c r="F10" s="2">
+        <v>587463</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>586809.33333333337</v>
+      </c>
+      <c r="H10" s="2">
+        <v>271</v>
+      </c>
+      <c r="I10" s="2">
+        <v>234</v>
+      </c>
+      <c r="J10" s="2">
+        <v>236</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="L10" s="2">
+        <v>269</v>
+      </c>
+      <c r="M10" s="2">
+        <v>238</v>
+      </c>
+      <c r="N10" s="2">
+        <v>245</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="3"/>
+        <v>250.66666666666666</v>
       </c>
     </row>
   </sheetData>
